--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/1 REVISION DE ESTATUTOS.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/1 REVISION DE ESTATUTOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2058225-E2A3-44C6-B8DC-E092720F1204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723CBEDB-64EB-48D6-B66B-1FE6C5957628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,13 +444,13 @@
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
-    <t>Del 01 de Enero de 2023 al 31 de Diciembre de 2023</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
     <t>PL-3.13</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,9 +846,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +919,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1337,7 @@
   <dimension ref="B3:M905"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="F16:G16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1352,30 +1355,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="48"/>
       <c r="K5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="4"/>
       <c r="K6" s="1" t="s">
         <v>1</v>
@@ -1383,11 +1386,11 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="4"/>
       <c r="K7" s="1" t="s">
         <v>2</v>
@@ -1395,11 +1398,11 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="C8" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="4"/>
       <c r="K8" s="1" t="s">
         <v>1</v>
@@ -1407,1321 +1410,1321 @@
       <c r="L8" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="11"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="11"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="11"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="40" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E64" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="36"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="36"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
     </row>
     <row r="74" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
     </row>
     <row r="75" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
     </row>
     <row r="76" spans="2:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
     </row>
     <row r="77" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
     </row>
     <row r="85" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
     </row>
     <row r="86" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
     </row>
     <row r="87" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
     </row>
     <row r="88" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
     </row>
     <row r="89" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
     </row>
     <row r="90" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="13"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="12"/>
     </row>
     <row r="91" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="13"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="12"/>
     </row>
     <row r="92" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="44"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="13"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="12"/>
     </row>
     <row r="93" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="46"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="13"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="12"/>
     </row>
     <row r="94" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
     </row>
     <row r="95" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
     </row>
     <row r="96" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
     </row>
     <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
     </row>
     <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
     </row>
     <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
     </row>
     <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
     </row>
     <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
     </row>
     <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="28" t="s">
+      <c r="B102" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C102" s="28"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="28" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="10"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="9"/>
     </row>
     <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="17" t="s">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
     </row>
     <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3526,8 +3529,11 @@
     <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
